--- a/Assets/DataTables/GameAssetDB.xlsx
+++ b/Assets/DataTables/GameAssetDB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Assets/Prefabs/Character/</t>
   </si>
   <si>
-    <t>Test1</t>
+    <t>Character01</t>
   </si>
   <si>
     <t>Assets/Images/</t>
   </si>
   <si>
-    <t>Test1_Image</t>
+    <t>Character01_Image</t>
   </si>
   <si>
     <t>Item</t>
@@ -52,16 +52,22 @@
     <t>Assets/Prefabs/Item</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test2_Image</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test3_Image</t>
+    <t>Gun01</t>
+  </si>
+  <si>
+    <t>Gun01_Image</t>
+  </si>
+  <si>
+    <t>UpperArmor01</t>
+  </si>
+  <si>
+    <t>UpperArmor01_Image</t>
+  </si>
+  <si>
+    <t>HeathPotion01</t>
+  </si>
+  <si>
+    <t>HeathPotion01_Image</t>
   </si>
 </sst>
 </file>
@@ -333,6 +339,7 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="20.38"/>
     <col customWidth="1" min="4" max="4" width="20.63"/>
+    <col customWidth="1" min="6" max="6" width="25.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -357,7 +364,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1.0000001E7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -377,7 +384,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>1.0000002E7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -397,7 +404,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>1.0000003E7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -413,6 +420,26 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>1.0000004E7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
